--- a/asset/files/template.xlsx
+++ b/asset/files/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\coop\Event-Reg-Project\asset\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows10\Desktop\Homework\Event-Reg-Project\asset\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5627C7-79F2-4324-B5DF-0CCB09A5DE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA3D082-303C-48B1-AFDB-F83EF2146CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC5403D2-AC90-4CEA-A991-DDD4A6A7C775}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DC5403D2-AC90-4CEA-A991-DDD4A6A7C775}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>รหัสพนักงาน</t>
   </si>
@@ -44,9 +44,6 @@
     <t>รหัสบัตรประชาชน</t>
   </si>
   <si>
-    <t>ชื่อ-สกุล</t>
-  </si>
-  <si>
     <t>เบอร์โทรศัพท์</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>1234567891234</t>
   </si>
   <si>
-    <t>ปัญญทัศน์ ศรีบุตรวงศ์</t>
-  </si>
-  <si>
     <t>0123456789</t>
   </si>
   <si>
@@ -93,6 +87,33 @@
   </si>
   <si>
     <t>15/09/2000 00:00</t>
+  </si>
+  <si>
+    <t>คำนำหน้า</t>
+  </si>
+  <si>
+    <t>หมายเหตุ</t>
+  </si>
+  <si>
+    <t>นาย</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>ศรีบุตรวงศ์</t>
+  </si>
+  <si>
+    <t>ปัญญทัศน์</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ลำดับที่</t>
   </si>
 </sst>
 </file>
@@ -100,20 +121,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1070000]d/mm/yyyy;@"/>
+    <numFmt numFmtId="187" formatCode="[$-1070000]d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -145,23 +166,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,7 +195,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -473,88 +491,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD748CD-6805-41C0-AB26-BDAED7A85BF7}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" style="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.4140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.4140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" style="1"/>
+    <col min="13" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
